--- a/bh3/505965963720625927_2021-03-25_11-26-21.xlsx
+++ b/bh3/505965963720625927_2021-03-25_11-26-21.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:15:56</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44280.92773148148</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>4314625955</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:36:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44280.73383101852</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:22:57</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44280.68260416666</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>4314335750</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:17:40</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44280.67893518518</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:50:19</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44280.61827546296</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:48:05</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44280.61672453704</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -989,10 +993,8 @@
           <t>4314006581</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:26:20</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44280.60162037037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:58:56</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44280.58259259259</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1119,10 +1119,8 @@
           <t>4313916661</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:55:38</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44280.58030092593</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1194,10 +1192,8 @@
           <t>4313822725</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:27:55</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44280.56105324074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1274,10 +1270,8 @@
           <t>4313378264</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:08:00</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44280.54722222222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1349,10 +1343,8 @@
           <t>4313362631</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:06:47</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44280.54637731481</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1424,10 +1416,8 @@
           <t>4313728193</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:03:49</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44280.54431712963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1503,10 +1493,8 @@
           <t>4313362631</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:37:48</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44280.52625</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1574,10 +1562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:24:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44280.51702546296</v>
       </c>
       <c r="I16" t="n">
         <v>73</v>
@@ -1653,10 +1639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:22:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44280.51528935185</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1728,10 +1712,8 @@
           <t>4313524070</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:27</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.51350694444</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -1803,10 +1785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:37</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.51292824074</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1878,10 +1858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44280.50543981481</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1957,10 +1935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:06</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44280.50354166667</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -2036,10 +2012,8 @@
           <t>4313451121</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:54</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44280.500625</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2107,10 +2081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:21</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44280.49746527777</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2186,10 +2158,8 @@
           <t>4313425660</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:36</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44280.49694444444</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -2264,10 +2234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:30</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44280.496875</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
@@ -2327,10 +2295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:14</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44280.49530092593</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2406,10 +2372,8 @@
           <t>4313404671</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:49</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44280.49362268519</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2481,10 +2445,8 @@
           <t>4313407886</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:35</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44280.49346064815</v>
       </c>
       <c r="I28" t="n">
         <v>11</v>
@@ -2552,10 +2514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:29</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44280.49269675926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2627,10 +2587,8 @@
           <t>4313402674</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:13</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44280.49251157408</v>
       </c>
       <c r="I30" t="n">
         <v>6</v>
@@ -2694,10 +2652,8 @@
           <t>4313396645</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:23</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44280.49193287037</v>
       </c>
       <c r="I31" t="n">
         <v>5</v>
@@ -2769,10 +2725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44280.49168981481</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2832,10 +2786,8 @@
           <t>4313400891</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:47:47</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44280.49151620371</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2907,10 +2859,8 @@
           <t>4313387242</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:44:51</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44280.48947916667</v>
       </c>
       <c r="I34" t="n">
         <v>23</v>
@@ -2986,10 +2936,8 @@
           <t>4313378895</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:14</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44280.48835648148</v>
       </c>
       <c r="I35" t="n">
         <v>24</v>
@@ -3065,10 +3013,8 @@
           <t>4313378264</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:42:44</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44280.48800925926</v>
       </c>
       <c r="I36" t="n">
         <v>10</v>
@@ -3140,10 +3086,8 @@
           <t>4313351290</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:38:36</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44280.48513888889</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3219,10 +3163,8 @@
           <t>4313362631</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:59</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44280.48471064815</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
@@ -3294,10 +3236,8 @@
           <t>4313340944</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44280.48446759259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3373,10 +3313,8 @@
           <t>4313351290</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:33</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44280.48440972222</v>
       </c>
       <c r="I40" t="n">
         <v>13</v>
@@ -3449,10 +3387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:02</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44280.48405092592</v>
       </c>
       <c r="I41" t="n">
         <v>60</v>
@@ -3520,10 +3456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:35:50</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44280.48321759259</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3591,10 +3525,8 @@
           <t>4313351290</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:35:23</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44280.48290509259</v>
       </c>
       <c r="I43" t="n">
         <v>53</v>
@@ -3658,10 +3590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:34:14</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44280.48210648148</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3737,10 +3667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:34</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44280.48164351852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3808,10 +3736,8 @@
           <t>4313340944</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:33</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44280.48163194444</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3887,10 +3813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:19</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44280.48077546297</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3958,10 +3882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:01</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44280.48056712963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4037,10 +3959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:00</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44280.48055555556</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4108,10 +4028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:00</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44280.48055555556</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4175,10 +4093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:23</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44280.48012731481</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -4257,10 +4173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:08</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44280.4799537037</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4336,10 +4250,8 @@
           <t>4313341308</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:02</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44280.47988425926</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4411,10 +4323,8 @@
           <t>4313340944</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:42</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44280.47965277778</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4490,10 +4400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:59</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44280.47915509259</v>
       </c>
       <c r="I55" t="n">
         <v>67</v>
@@ -4557,10 +4465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:49</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44280.47903935185</v>
       </c>
       <c r="I56" t="n">
         <v>11</v>
@@ -4636,10 +4542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:36</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44280.47888888889</v>
       </c>
       <c r="I57" t="n">
         <v>11</v>
@@ -4715,10 +4619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:17</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44280.47866898148</v>
       </c>
       <c r="I58" t="n">
         <v>20</v>
@@ -4782,10 +4684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:09</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44280.47788194445</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4861,10 +4761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44280.47784722222</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4932,10 +4830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:58</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44280.47775462963</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -5003,10 +4899,8 @@
           <t>4313328020</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:58</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44280.47775462963</v>
       </c>
       <c r="I62" t="n">
         <v>4</v>
@@ -5082,10 +4976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:47</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44280.47762731482</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5153,10 +5045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:28</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44280.47740740741</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5232,10 +5122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:23</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44280.47734953704</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -5307,10 +5195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:20</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44280.47731481482</v>
       </c>
       <c r="I66" t="n">
         <v>299</v>
@@ -5386,10 +5272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:19</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44280.47730324074</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -5458,10 +5342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:10</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44280.47719907408</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -5525,10 +5407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:03</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44280.47711805555</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5592,10 +5472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:43</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44280.47688657408</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
